--- a/Tarea 4/Datos/Ejercicio 3_financiamiento2.xlsx
+++ b/Tarea 4/Datos/Ejercicio 3_financiamiento2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 4/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="8_{26005164-C487-4725-9248-B4FD68E319EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1DB6C8B-F6DF-4217-8667-46A7B203097F}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{26005164-C487-4725-9248-B4FD68E319EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B953FDD8-12E3-4F2D-A4BB-284AF3C80D3C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B41C54B7-CF84-415B-89D4-796EDAFB3CA0}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,16 +419,17 @@
   <dimension ref="A1:D1243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1243" sqref="A1243"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
